--- a/code lists/DE4A Code Lists - Transport Profiles v2-draft.xlsx
+++ b/code lists/DE4A Code Lists - Transport Profiles v2-draft.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git\de4a-codelists\code lists\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git-de4a\de4a-codelists\code lists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{750B4F8C-34E0-4B1E-B5FC-93427F40493B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF28C0AC-F4CE-4492-9260-06C51B1B77F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="27495" yWindow="450" windowWidth="21735" windowHeight="20340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Transport Profile" sheetId="5" r:id="rId1"/>
@@ -23,17 +23,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Profile ID</t>
   </si>
   <si>
-    <t>Deprecated</t>
-  </si>
-  <si>
-    <t>Since</t>
-  </si>
-  <si>
     <t>Protocol name</t>
   </si>
   <si>
@@ -43,13 +37,22 @@
     <t>1.0</t>
   </si>
   <si>
-    <t>Deprecated since?</t>
-  </si>
-  <si>
     <t>bdxr-transport-ebms3-as4-v1p0</t>
   </si>
   <si>
     <t>CEF AS4</t>
+  </si>
+  <si>
+    <t>Initial version</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Deprecation version</t>
+  </si>
+  <si>
+    <t>active</t>
   </si>
 </sst>
 </file>
@@ -541,7 +544,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,7 +552,7 @@
     <col min="1" max="1" width="16.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="11.42578125" style="4"/>
@@ -557,39 +560,39 @@
   <sheetData>
     <row r="1" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D2" s="7">
         <v>1</v>
       </c>
-      <c r="E2" s="2" t="b">
-        <v>0</v>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
